--- a/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplatesTempFolder/CHECK_CV-2019-00003.xlsx
+++ b/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplatesTempFolder/CHECK_CV-2019-00003.xlsx
@@ -215,7 +215,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>08-06-2019</a:t>
+            <a:t>08-08-2019</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
